--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8F3E94-FD72-4C96-9B6D-A573BB22C4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6161FD8-4B82-41E6-9213-CD97510F7D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -323,13 +323,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,11 +635,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -671,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -685,7 +687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -699,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -713,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -730,7 +732,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -747,22 +749,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -776,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -790,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -804,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -821,7 +823,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -863,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -877,7 +879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -891,7 +893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -905,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -919,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -933,7 +935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -947,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -961,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -975,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1097,7 +1099,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Anirban"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Todo"/>
+        <filter val="WIP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1338,9 +1352,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1399,7 +1413,7 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6161FD8-4B82-41E6-9213-CD97510F7D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8285F2D4-3F6D-4399-8D10-32A6D48332E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
   <si>
     <t>Item Number</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Spoken English training to Victor</t>
   </si>
   <si>
-    <t>MS Office self training</t>
-  </si>
-  <si>
     <t>Teaching Ops training to team</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Names</t>
   </si>
   <si>
-    <t>Anirban Chakroborty</t>
-  </si>
-  <si>
     <t>Student fees collection report</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>Planned for 14-Nov After morning stand-up</t>
   </si>
   <si>
-    <t>Aniban to review the training plan by 10-Nov</t>
-  </si>
-  <si>
     <t>ID card for all</t>
   </si>
   <si>
@@ -239,13 +230,22 @@
     <t>Java Student Batch creation left</t>
   </si>
   <si>
-    <t>Debasish Sir left</t>
-  </si>
-  <si>
     <t>Electric Bill</t>
   </si>
   <si>
     <t>Pujo Subscription</t>
+  </si>
+  <si>
+    <t>Anirban Chakrabarty</t>
+  </si>
+  <si>
+    <t>MS Office training</t>
+  </si>
+  <si>
+    <t>ID card jacket purchase</t>
+  </si>
+  <si>
+    <t>Attendance Register</t>
   </si>
 </sst>
 </file>
@@ -635,25 +635,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.06640625" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -684,10 +683,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -701,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -715,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -729,10 +728,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -746,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -764,7 +763,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -778,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -792,7 +791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -806,99 +805,96 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -907,12 +903,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -921,12 +917,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -935,12 +931,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -949,12 +945,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -963,12 +959,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -977,141 +973,123 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Anirban"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Todo"/>
-        <filter val="WIP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1121,226 +1099,226 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1350,39 +1328,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1391,12 +1369,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1405,88 +1383,116 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8285F2D4-3F6D-4399-8D10-32A6D48332E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4208A13-2CD2-41CC-BDA6-F93C533469B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
   <si>
     <t>Item Number</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Attendance Register</t>
+  </si>
+  <si>
+    <t>New SIM</t>
+  </si>
+  <si>
+    <t>Company Income Expense Ledger &amp; Balance Sheet</t>
   </si>
 </sst>
 </file>
@@ -635,24 +641,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="36.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -686,7 +692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -700,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -714,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -731,7 +737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -748,7 +754,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -763,7 +769,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -777,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -791,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -805,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -819,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -833,7 +839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -847,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -861,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -875,7 +881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -889,7 +895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -903,7 +909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -917,7 +923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -931,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -945,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -959,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -973,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -987,7 +993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1086,6 +1092,20 @@
       </c>
       <c r="D30" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1102,18 +1122,18 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1139,7 +1159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
@@ -1165,7 +1185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1191,7 +1211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1217,7 +1237,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
@@ -1243,7 +1263,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1295,7 +1315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
@@ -1328,20 +1348,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1369,7 +1389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1383,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1397,7 +1417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1411,7 +1431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1425,7 +1445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1439,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1453,7 +1473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1467,7 +1487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1481,7 +1501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1493,6 +1513,20 @@
       </c>
       <c r="D11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4208A13-2CD2-41CC-BDA6-F93C533469B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62DD28-55A6-4B2C-98F7-7C7C1C63748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="78">
   <si>
     <t>Item Number</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Company Income Expense Ledger &amp; Balance Sheet</t>
+  </si>
+  <si>
+    <t>Return of Merch (Debashish and Sayan)</t>
   </si>
 </sst>
 </file>
@@ -644,21 +647,21 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1328125" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -692,7 +695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -706,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -720,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -737,7 +740,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -754,7 +757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -769,7 +772,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -783,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -797,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -811,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -825,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -839,7 +842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -853,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -867,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -881,7 +884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -892,10 +895,10 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -909,7 +912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -923,7 +926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -937,7 +940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -951,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -965,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -979,7 +982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -993,7 +996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1065,8 +1068,11 @@
       <c r="D28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1122,18 +1128,18 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
@@ -1352,16 +1358,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1383,13 +1389,13 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1397,13 +1403,13 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1439,13 +1445,13 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1481,13 +1487,13 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1498,10 +1504,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62DD28-55A6-4B2C-98F7-7C7C1C63748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5339B6-7A78-4345-ADCF-4C1BD1020380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
   <si>
     <t>Item Number</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Return of Merch (Debashish and Sayan)</t>
+  </si>
+  <si>
+    <t>Create a new Attendance Sheet</t>
   </si>
 </sst>
 </file>
@@ -644,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,6 +1114,20 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5339B6-7A78-4345-ADCF-4C1BD1020380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60933729-B7D9-47CF-AC63-066736CDF1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,15 +13,15 @@
     <sheet name="InternalAdmin" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$32</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
   <si>
     <t>Item Number</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Buy JELET Book</t>
   </si>
   <si>
-    <t>Biscuits</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -257,7 +254,16 @@
     <t>Return of Merch (Debashish and Sayan)</t>
   </si>
   <si>
-    <t>Create a new Attendance Sheet</t>
+    <t>Book has to given to Avishek and Subroto Sir</t>
+  </si>
+  <si>
+    <t>Register for CRM information</t>
+  </si>
+  <si>
+    <t>Register for bio data of teacher</t>
+  </si>
+  <si>
+    <t>Organize the office different accessories</t>
   </si>
 </sst>
 </file>
@@ -647,11 +653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +666,7 @@
     <col min="2" max="2" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -822,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -839,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -895,7 +901,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -1007,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1052,7 +1058,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -1072,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1088,13 +1094,16 @@
       <c r="D29" t="s">
         <v>10</v>
       </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -1108,7 +1117,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1119,7 +1128,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
@@ -1131,8 +1140,36 @@
         <v>6</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1184,7 +1221,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>51</v>
@@ -1371,11 +1408,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1473,13 +1510,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1501,10 +1538,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -1518,10 +1555,10 @@
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1532,28 +1569,14 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D9" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}"/>
+  <autoFilter ref="A1:D8" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60933729-B7D9-47CF-AC63-066736CDF1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AF11F4-8280-48BE-82E9-FD600C7D3CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$34</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
   <si>
     <t>Item Number</t>
   </si>
@@ -257,13 +257,16 @@
     <t>Book has to given to Avishek and Subroto Sir</t>
   </si>
   <si>
-    <t>Register for CRM information</t>
-  </si>
-  <si>
-    <t>Register for bio data of teacher</t>
-  </si>
-  <si>
     <t>Organize the office different accessories</t>
+  </si>
+  <si>
+    <t>Online interview of Pronay Dhargave on 16 Nov at 3 PM</t>
+  </si>
+  <si>
+    <t>File for daily visit enquiry Sheet</t>
+  </si>
+  <si>
+    <t>File for bio data of teacher</t>
   </si>
 </sst>
 </file>
@@ -653,20 +656,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -918,7 +921,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1131,7 +1134,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1145,7 +1148,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1159,7 +1162,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1168,8 +1171,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AF11F4-8280-48BE-82E9-FD600C7D3CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF212AD1-63BF-4BF5-A41E-B0A2C411E781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
   <si>
     <t>Item Number</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>File for bio data of teacher</t>
+  </si>
+  <si>
+    <t>New File to be purchased</t>
+  </si>
+  <si>
+    <t>Already file is there, we need to remove other documents from this file</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,13 +1143,16 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1151,13 +1160,16 @@
         <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1165,13 +1177,13 @@
         <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF212AD1-63BF-4BF5-A41E-B0A2C411E781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AEDF0-43AF-4A1E-8866-64FF4657F94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
   <si>
     <t>Item Number</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Already file is there, we need to remove other documents from this file</t>
+  </si>
+  <si>
+    <t>Need to take interview of Jayjit Sen on 16th Nov at 2 PM</t>
   </si>
 </sst>
 </file>
@@ -662,11 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,6 +1197,20 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AEDF0-43AF-4A1E-8866-64FF4657F94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F18967-6636-45B9-B588-991E6C54EAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
   <si>
     <t>Item Number</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Spoken English syllabus compilation</t>
   </si>
   <si>
-    <t>Spoken English training to Victor</t>
-  </si>
-  <si>
     <t>Teaching Ops training to team</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>Conduct Internal Assessment Test for existing Students</t>
   </si>
   <si>
-    <t>Java Student Batch creation left</t>
-  </si>
-  <si>
     <t>Electric Bill</t>
   </si>
   <si>
@@ -276,6 +270,45 @@
   </si>
   <si>
     <t>Need to take interview of Jayjit Sen on 16th Nov at 2 PM</t>
+  </si>
+  <si>
+    <t>Fees Collection report done.Java Student Batch creation left in ClassPlus APP</t>
+  </si>
+  <si>
+    <t>Start building up Mock Test Question Paper</t>
+  </si>
+  <si>
+    <t>Start building up Mock Test Presentation</t>
+  </si>
+  <si>
+    <t>Debashish To Help</t>
+  </si>
+  <si>
+    <t>Spoken English training to Victor &amp; Sathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Tuesdays </t>
+  </si>
+  <si>
+    <t>Did not pick up the call..Need to call today</t>
+  </si>
+  <si>
+    <t>Three Mirrors. 1.5 Foot By 2 Foot</t>
+  </si>
+  <si>
+    <t>Phenyl</t>
+  </si>
+  <si>
+    <t>Switch Repair Kitchen</t>
+  </si>
+  <si>
+    <t>Light Point at Staircase</t>
+  </si>
+  <si>
+    <t>Tissue Paper dispensor at Bathroom in Ist Floor</t>
+  </si>
+  <si>
+    <t>Wet Tissue</t>
   </si>
 </sst>
 </file>
@@ -665,11 +698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -758,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -775,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -826,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -834,19 +867,25 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -854,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -868,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -882,10 +921,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -896,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -910,7 +949,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -924,13 +963,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -938,7 +977,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -952,7 +991,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -966,7 +1005,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -980,7 +1019,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -994,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1008,13 +1047,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1022,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1031,7 +1070,7 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1039,13 +1078,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1053,13 +1092,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1067,7 +1106,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1081,16 +1120,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1098,7 +1137,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -1107,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1115,7 +1154,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -1129,10 +1168,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -1143,7 +1182,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1152,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1160,7 +1199,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1169,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1177,10 +1216,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -1191,7 +1230,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -1205,13 +1244,50 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1241,210 +1317,210 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1454,17 +1530,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1472,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1486,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1500,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1514,13 +1590,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1528,13 +1604,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1542,13 +1618,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1556,13 +1632,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,13 +1646,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1584,13 +1660,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1598,10 +1674,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1612,13 +1688,97 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F18967-6636-45B9-B588-991E6C54EAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA35660-DA89-44C1-AA55-9EA0E61CE5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="97">
   <si>
     <t>Item Number</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Wet Tissue</t>
+  </si>
+  <si>
+    <t>Mock test schedule</t>
   </si>
 </sst>
 </file>
@@ -698,24 +701,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="63.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -749,7 +752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -763,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -777,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -794,7 +797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -811,7 +814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -826,7 +829,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -840,7 +843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -854,7 +857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -871,7 +874,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -888,7 +891,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -902,7 +905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -916,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -930,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -944,7 +947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -958,7 +961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -972,7 +975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -986,7 +989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1288,6 +1291,20 @@
       </c>
       <c r="E38" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1304,18 +1321,18 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1341,7 +1358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>68</v>
       </c>
@@ -1367,7 +1384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1393,7 +1410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1419,7 +1436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1445,7 +1462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1471,7 +1488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1497,7 +1514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1537,13 +1554,13 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1571,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1585,7 +1602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1599,7 +1616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1613,7 +1630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1627,7 +1644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1641,7 +1658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1655,7 +1672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1669,7 +1686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1683,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1697,7 +1714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1711,7 +1728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1725,7 +1742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1739,7 +1756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1753,7 +1770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1767,7 +1784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA35660-DA89-44C1-AA55-9EA0E61CE5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C172A21-58DB-43A7-A3CA-E51FA166BB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -703,9 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1225,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -1549,9 +1549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C172A21-58DB-43A7-A3CA-E51FA166BB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCAD254-1420-463A-B264-736D99C08B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="98">
   <si>
     <t>Item Number</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Mock test schedule</t>
+  </si>
+  <si>
+    <t>Questions needed to type from JELETE Book for internal Chemistry test on 30th November</t>
   </si>
 </sst>
 </file>
@@ -701,24 +704,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1328125" customWidth="1"/>
+    <col min="5" max="5" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -752,7 +755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -766,7 +769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -780,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -797,7 +800,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -814,7 +817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -829,7 +832,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -843,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -857,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -874,7 +877,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -891,7 +894,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -905,7 +908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -919,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -933,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -947,7 +950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -961,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -975,7 +978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -989,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1305,6 +1308,20 @@
       </c>
       <c r="D39" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1321,18 +1338,18 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1358,7 +1375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>68</v>
       </c>
@@ -1384,7 +1401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1410,7 +1427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1436,7 +1453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1462,7 +1479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1488,7 +1505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1514,7 +1531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1549,18 +1566,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1591,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1588,7 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1602,7 +1619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1616,7 +1633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1630,7 +1647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1644,7 +1661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1658,7 +1675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1672,7 +1689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1686,7 +1703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1700,7 +1717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1714,7 +1731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1728,7 +1745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1742,7 +1759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1756,7 +1773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1770,7 +1787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1784,7 +1801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCAD254-1420-463A-B264-736D99C08B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F24F65-FEED-4389-B475-A3F6AD8BC7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,15 @@
     <sheet name="InternalAdmin" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$32</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="90">
   <si>
     <t>Item Number</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Make Spreadsheet for Weekly off of team members</t>
-  </si>
-  <si>
     <t>Rahul</t>
   </si>
   <si>
@@ -95,15 +92,9 @@
     <t>News Paper flyers distribution</t>
   </si>
   <si>
-    <t>Marketing KT to Rahul</t>
-  </si>
-  <si>
     <t>Stamp Pad</t>
   </si>
   <si>
-    <t>College doors student journey KT by Waqar</t>
-  </si>
-  <si>
     <t>College doors app defect management</t>
   </si>
   <si>
@@ -200,33 +191,12 @@
     <t>Furniture Repairing</t>
   </si>
   <si>
-    <t>AC Service</t>
-  </si>
-  <si>
-    <t>Internet Issue</t>
-  </si>
-  <si>
-    <t>Internet Bill</t>
-  </si>
-  <si>
     <t>Banking issue (HDFC Vyapar Transaction Summary &amp; Net Banking)</t>
   </si>
   <si>
-    <t>Buy JELET Book</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>Conduct Internal Assessment Test for existing Students</t>
-  </si>
-  <si>
-    <t>Electric Bill</t>
-  </si>
-  <si>
-    <t>Pujo Subscription</t>
-  </si>
-  <si>
     <t>Anirban Chakrabarty</t>
   </si>
   <si>
@@ -236,9 +206,6 @@
     <t>ID card jacket purchase</t>
   </si>
   <si>
-    <t>Attendance Register</t>
-  </si>
-  <si>
     <t>New SIM</t>
   </si>
   <si>
@@ -248,9 +215,6 @@
     <t>Return of Merch (Debashish and Sayan)</t>
   </si>
   <si>
-    <t>Book has to given to Avishek and Subroto Sir</t>
-  </si>
-  <si>
     <t>Organize the office different accessories</t>
   </si>
   <si>
@@ -269,9 +233,6 @@
     <t>Already file is there, we need to remove other documents from this file</t>
   </si>
   <si>
-    <t>Need to take interview of Jayjit Sen on 16th Nov at 2 PM</t>
-  </si>
-  <si>
     <t>Fees Collection report done.Java Student Batch creation left in ClassPlus APP</t>
   </si>
   <si>
@@ -290,9 +251,6 @@
     <t xml:space="preserve">On Tuesdays </t>
   </si>
   <si>
-    <t>Did not pick up the call..Need to call today</t>
-  </si>
-  <si>
     <t>Three Mirrors. 1.5 Foot By 2 Foot</t>
   </si>
   <si>
@@ -314,7 +272,25 @@
     <t>Mock test schedule</t>
   </si>
   <si>
-    <t>Questions needed to type from JELETE Book for internal Chemistry test on 30th November</t>
+    <t>College doors Mock test Dry run</t>
+  </si>
+  <si>
+    <t>Conduct Internal Assessment Test for existing Students: Questions needed to type from JELETE Book for internal Chemistry test on 30th November</t>
+  </si>
+  <si>
+    <t>Why cannot teacher's type the question papers?</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Powder milk</t>
+  </si>
+  <si>
+    <t>Google anttech pay and deploy personel</t>
   </si>
 </sst>
 </file>
@@ -704,24 +680,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="63.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,104 +711,104 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -840,75 +816,75 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -916,13 +892,13 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -930,402 +906,343 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
         <v>73</v>
       </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
         <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1338,223 +1255,223 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1564,62 +1481,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1627,13 +1544,13 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1641,182 +1558,140 @@
         <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D8" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}"/>
+  <autoFilter ref="A1:D3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F24F65-FEED-4389-B475-A3F6AD8BC7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA68D1A-220F-4081-BC65-AE44AB607C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="81">
   <si>
     <t>Item Number</t>
   </si>
@@ -65,30 +65,15 @@
     <t>Sayan</t>
   </si>
   <si>
-    <t>Classplus app walkthrough to team</t>
-  </si>
-  <si>
-    <t>CRM walkthrough to team</t>
-  </si>
-  <si>
     <t>Debasish</t>
   </si>
   <si>
-    <t>Marketing Materials reverse KT</t>
-  </si>
-  <si>
     <t>Spoken English syllabus compilation</t>
   </si>
   <si>
-    <t>Teaching Ops training to team</t>
-  </si>
-  <si>
     <t>Anirban</t>
   </si>
   <si>
-    <t>Git access &amp; training to Rahul &amp; Victor</t>
-  </si>
-  <si>
     <t>News Paper flyers distribution</t>
   </si>
   <si>
@@ -110,21 +95,12 @@
     <t>Google Anttech Google Landing Page</t>
   </si>
   <si>
-    <t>Admin Activities sheet</t>
-  </si>
-  <si>
     <t>Names</t>
   </si>
   <si>
     <t>Student fees collection report</t>
   </si>
   <si>
-    <t>Teacher payout slip prepare</t>
-  </si>
-  <si>
-    <t>Teacher payout Excel</t>
-  </si>
-  <si>
     <t>Debasish Nath</t>
   </si>
   <si>
@@ -176,9 +152,6 @@
     <t>Planned for 10-Nov After morning stand-up</t>
   </si>
   <si>
-    <t>Planned for 14-Nov After morning stand-up</t>
-  </si>
-  <si>
     <t>ID card for all</t>
   </si>
   <si>
@@ -206,18 +179,12 @@
     <t>ID card jacket purchase</t>
   </si>
   <si>
-    <t>New SIM</t>
-  </si>
-  <si>
     <t>Company Income Expense Ledger &amp; Balance Sheet</t>
   </si>
   <si>
     <t>Return of Merch (Debashish and Sayan)</t>
   </si>
   <si>
-    <t>Organize the office different accessories</t>
-  </si>
-  <si>
     <t>Online interview of Pronay Dhargave on 16 Nov at 3 PM</t>
   </si>
   <si>
@@ -291,13 +258,19 @@
   </si>
   <si>
     <t>Google anttech pay and deploy personel</t>
+  </si>
+  <si>
+    <t>Git access &amp; training to Rahul</t>
+  </si>
+  <si>
+    <t>Monday EOD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,13 +282,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,14 +334,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,11 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -759,64 +723,66 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -824,61 +790,55 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -886,13 +846,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -900,13 +860,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -914,198 +874,213 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1114,135 +1089,11 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1268,210 +1119,210 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>48</v>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1481,11 +1332,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1499,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1513,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1527,13 +1378,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1541,153 +1392,139 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA68D1A-220F-4081-BC65-AE44AB607C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB77F15-C212-44E8-8304-ED10A1E2F820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
   <si>
     <t>Item Number</t>
   </si>
@@ -239,15 +239,9 @@
     <t>Mock test schedule</t>
   </si>
   <si>
-    <t>College doors Mock test Dry run</t>
-  </si>
-  <si>
     <t>Conduct Internal Assessment Test for existing Students: Questions needed to type from JELETE Book for internal Chemistry test on 30th November</t>
   </si>
   <si>
-    <t>Why cannot teacher's type the question papers?</t>
-  </si>
-  <si>
     <t>Coffee</t>
   </si>
   <si>
@@ -264,6 +258,24 @@
   </si>
   <si>
     <t>Monday EOD</t>
+  </si>
+  <si>
+    <t>On 20th November 2023, we will test with 3 users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why cannot teacher's type the question papers? </t>
+  </si>
+  <si>
+    <t>We communicated to Subroto Sir. He will do the necessary stuffs on Thursday (23-11-2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry run of Mock Test with 3 users </t>
+  </si>
+  <si>
+    <t>Initial College doors Mock test Dry run</t>
+  </si>
+  <si>
+    <t>Debashish and Ananya tested from our end and raised 25 defects. We notified College Doors</t>
   </si>
 </sst>
 </file>
@@ -644,24 +656,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1328125" customWidth="1"/>
+    <col min="5" max="5" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -695,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -709,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -726,7 +738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -740,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -757,7 +769,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
@@ -774,12 +786,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -788,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -802,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -816,12 +828,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -829,8 +841,11 @@
       <c r="D11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -844,7 +859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -858,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -872,12 +887,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -886,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -900,7 +915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20</v>
       </c>
@@ -914,7 +929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>22</v>
       </c>
@@ -931,7 +946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>25</v>
       </c>
@@ -945,7 +960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>26</v>
       </c>
@@ -962,12 +977,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -976,46 +991,40 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23">
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1024,46 +1033,46 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26">
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1075,25 +1084,59 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1106,18 +1149,18 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1143,7 +1186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>49</v>
       </c>
@@ -1169,7 +1212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1195,7 +1238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1221,7 +1264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1247,7 +1290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1334,18 +1377,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1373,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1387,7 +1430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1401,7 +1444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1415,7 +1458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1429,7 +1472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1443,7 +1486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1457,7 +1500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1471,7 +1514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1485,12 +1528,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1499,12 +1542,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1513,12 +1556,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB77F15-C212-44E8-8304-ED10A1E2F820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3582D05-635E-4A9C-8768-9288BF008EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,12 +346,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,13 +665,13 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
@@ -674,7 +680,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -694,7 +700,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -708,7 +714,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -722,7 +728,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -739,7 +745,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -753,7 +759,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -770,7 +776,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>9</v>
       </c>
       <c r="B7" t="s">
@@ -787,7 +793,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>11</v>
       </c>
       <c r="B8" t="s">
@@ -801,7 +807,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>12</v>
       </c>
       <c r="B9" t="s">
@@ -815,7 +821,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -829,7 +835,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>14</v>
       </c>
       <c r="B11" t="s">
@@ -846,7 +852,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>15</v>
       </c>
       <c r="B12" t="s">
@@ -860,7 +866,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>16</v>
       </c>
       <c r="B13" t="s">
@@ -874,7 +880,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>17</v>
       </c>
       <c r="B14" t="s">
@@ -888,7 +894,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>18</v>
       </c>
       <c r="B15" t="s">
@@ -902,7 +908,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>19</v>
       </c>
       <c r="B16" t="s">
@@ -916,7 +922,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>20</v>
       </c>
       <c r="B17" t="s">
@@ -930,7 +936,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>22</v>
       </c>
       <c r="B18" t="s">
@@ -947,7 +953,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>25</v>
       </c>
       <c r="B19" t="s">
@@ -961,7 +967,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>26</v>
       </c>
       <c r="B20" t="s">
@@ -978,7 +984,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>27</v>
       </c>
       <c r="B21" t="s">
@@ -1006,7 +1012,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -1020,7 +1026,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>29</v>
       </c>
       <c r="B24" t="s">
@@ -1037,7 +1043,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>30</v>
       </c>
       <c r="B25" t="s">
@@ -1054,7 +1060,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>32</v>
       </c>
       <c r="B26" t="s">
@@ -1068,7 +1074,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>33</v>
       </c>
       <c r="B27" t="s">
@@ -1085,7 +1091,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>34</v>
       </c>
       <c r="B28" t="s">
@@ -1102,7 +1108,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>35</v>
       </c>
       <c r="B29" t="s">
@@ -1119,7 +1125,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>36</v>
       </c>
       <c r="B30" t="s">

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3582D05-635E-4A9C-8768-9288BF008EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488B1DD-2307-402A-84DA-11496FE6719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
   <si>
     <t>Item Number</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Sayan</t>
   </si>
   <si>
-    <t>Debasish</t>
-  </si>
-  <si>
     <t>Spoken English syllabus compilation</t>
   </si>
   <si>
@@ -276,6 +273,12 @@
   </si>
   <si>
     <t>Debashish and Ananya tested from our end and raised 25 defects. We notified College Doors</t>
+  </si>
+  <si>
+    <t>Prannay is selected.</t>
+  </si>
+  <si>
+    <t>Debashish</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -749,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -763,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -772,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -780,16 +783,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,10 +800,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -811,10 +814,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -825,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -839,16 +842,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -856,10 +859,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -870,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -884,7 +887,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -898,10 +901,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -912,10 +915,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -926,10 +929,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -940,16 +943,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -957,7 +960,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -971,16 +974,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,27 +991,27 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1016,10 +1019,10 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1030,7 +1033,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1039,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1047,7 +1050,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1056,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1064,13 +1067,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1078,7 +1084,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1087,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1095,7 +1101,7 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -1104,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1112,16 +1118,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1129,16 +1135,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1168,210 +1174,210 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1399,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1413,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1427,13 +1433,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1441,13 +1447,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1455,13 +1461,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1469,13 +1475,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1483,13 +1489,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1497,13 +1503,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1511,13 +1517,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1525,13 +1531,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1539,13 +1545,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1553,13 +1559,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1567,13 +1573,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488B1DD-2307-402A-84DA-11496FE6719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE50E506-A232-4C7B-BD87-9033D301F8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
   <si>
     <t>Item Number</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Debashish</t>
+  </si>
+  <si>
+    <t>Waqar reverted back and we will check on Monday (20th November 2023)</t>
   </si>
 </sst>
 </file>
@@ -665,11 +668,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -716,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -730,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -747,7 +751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>7</v>
       </c>
@@ -761,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>8</v>
       </c>
@@ -795,7 +799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>11</v>
       </c>
@@ -809,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>12</v>
       </c>
@@ -823,7 +827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>13</v>
       </c>
@@ -867,8 +871,11 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>16</v>
       </c>
@@ -882,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>17</v>
       </c>
@@ -896,7 +903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>18</v>
       </c>
@@ -955,7 +962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>25</v>
       </c>
@@ -969,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>26</v>
       </c>
@@ -1014,7 +1021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>28</v>
       </c>
@@ -1028,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>29</v>
       </c>
@@ -1045,7 +1052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>30</v>
       </c>
@@ -1079,7 +1086,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>33</v>
       </c>
@@ -1096,7 +1103,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>34</v>
       </c>
@@ -1113,7 +1120,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>35</v>
       </c>
@@ -1148,7 +1155,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Debashish"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE50E506-A232-4C7B-BD87-9033D301F8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBDD836-186F-464C-A9D9-3EEC2CABAD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$27</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
   <si>
     <t>Item Number</t>
   </si>
@@ -74,9 +74,6 @@
     <t>News Paper flyers distribution</t>
   </si>
   <si>
-    <t>Stamp Pad</t>
-  </si>
-  <si>
     <t>College doors app defect management</t>
   </si>
   <si>
@@ -143,18 +140,12 @@
     <t>Off</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Planned for 10-Nov After morning stand-up</t>
   </si>
   <si>
     <t>ID card for all</t>
   </si>
   <si>
-    <t>Merch for Marketing Team</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>Company Income Expense Ledger &amp; Balance Sheet</t>
   </si>
   <si>
-    <t>Return of Merch (Debashish and Sayan)</t>
-  </si>
-  <si>
     <t>Online interview of Pronay Dhargave on 16 Nov at 3 PM</t>
   </si>
   <si>
@@ -200,12 +188,6 @@
     <t>Fees Collection report done.Java Student Batch creation left in ClassPlus APP</t>
   </si>
   <si>
-    <t>Start building up Mock Test Question Paper</t>
-  </si>
-  <si>
-    <t>Start building up Mock Test Presentation</t>
-  </si>
-  <si>
     <t>Debashish To Help</t>
   </si>
   <si>
@@ -218,9 +200,6 @@
     <t>Three Mirrors. 1.5 Foot By 2 Foot</t>
   </si>
   <si>
-    <t>Phenyl</t>
-  </si>
-  <si>
     <t>Switch Repair Kitchen</t>
   </si>
   <si>
@@ -230,24 +209,9 @@
     <t>Tissue Paper dispensor at Bathroom in Ist Floor</t>
   </si>
   <si>
-    <t>Wet Tissue</t>
-  </si>
-  <si>
     <t>Mock test schedule</t>
   </si>
   <si>
-    <t>Conduct Internal Assessment Test for existing Students: Questions needed to type from JELETE Book for internal Chemistry test on 30th November</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Tea</t>
-  </si>
-  <si>
-    <t>Powder milk</t>
-  </si>
-  <si>
     <t>Google anttech pay and deploy personel</t>
   </si>
   <si>
@@ -257,38 +221,42 @@
     <t>Monday EOD</t>
   </si>
   <si>
-    <t>On 20th November 2023, we will test with 3 users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why cannot teacher's type the question papers? </t>
-  </si>
-  <si>
-    <t>We communicated to Subroto Sir. He will do the necessary stuffs on Thursday (23-11-2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry run of Mock Test with 3 users </t>
-  </si>
-  <si>
-    <t>Initial College doors Mock test Dry run</t>
-  </si>
-  <si>
-    <t>Debashish and Ananya tested from our end and raised 25 defects. We notified College Doors</t>
-  </si>
-  <si>
     <t>Prannay is selected.</t>
   </si>
   <si>
     <t>Debashish</t>
   </si>
   <si>
-    <t>Waqar reverted back and we will check on Monday (20th November 2023)</t>
+    <t>Mock test Dry run</t>
+  </si>
+  <si>
+    <t>Debashish and Ananya tested from our end and raised 25 defects. We notified College Doors
+Waqar reverted back and we will check on Monday (20th November 2023)</t>
+  </si>
+  <si>
+    <t>Subroto Sir will set Question paper by Thursday (23-11-2023)</t>
+  </si>
+  <si>
+    <t>Conduct Internal Assessment Test Physics</t>
+  </si>
+  <si>
+    <t>Talk to Avishek Sir</t>
+  </si>
+  <si>
+    <t>Conduct Internal Assessment Test Chem</t>
+  </si>
+  <si>
+    <t>Mock Test Question Paper</t>
+  </si>
+  <si>
+    <t>Mock Test Presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +274,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -363,6 +338,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,12 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +660,7 @@
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.77734375" customWidth="1"/>
     <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -706,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -714,13 +692,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -728,13 +706,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -748,12 +726,12 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -761,16 +739,16 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -779,43 +757,43 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -827,119 +805,125 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -947,117 +931,117 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
       <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1066,102 +1050,45 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F30" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Debashish"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1170,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,210 +1114,210 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1400,11 +1327,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1446,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1460,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1471,10 +1398,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1485,10 +1412,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1499,10 +1426,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1513,85 +1440,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBDD836-186F-464C-A9D9-3EEC2CABAD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B49AFE-0EF3-40E2-8802-5F60F377D387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>Monday EOD</t>
   </si>
   <si>
-    <t>Prannay is selected.</t>
-  </si>
-  <si>
     <t>Debashish</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Mock Test Presentation</t>
+  </si>
+  <si>
+    <t>Prannay is selected. His biodata and other credentials needed to be taken.</t>
   </si>
 </sst>
 </file>
@@ -647,11 +647,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A27"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -698,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -712,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -729,7 +730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -743,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -768,7 +769,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -777,7 +778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -791,7 +792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -810,21 +811,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -836,12 +837,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -853,7 +854,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -878,16 +879,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -901,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -915,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -929,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -943,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -965,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>9</v>
@@ -974,7 +975,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -993,16 +994,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1010,19 +1011,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1078,17 +1079,23 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F27" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Debashish"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1097,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B49AFE-0EF3-40E2-8802-5F60F377D387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -255,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,9 +360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,9 +400,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,7 +437,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,7 +472,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -646,26 +645,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.77734375" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="81.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -685,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -699,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -713,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -730,7 +728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -744,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -761,7 +759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -778,7 +776,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -792,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -806,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -820,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -837,7 +835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -854,7 +852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -871,7 +869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -888,7 +886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -902,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -916,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -930,7 +928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -944,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -958,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -975,7 +973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -989,7 +987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1023,7 +1021,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1037,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1071,7 +1069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1089,37 +1087,31 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Debashish"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1145,7 +1137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1171,7 +1163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1197,7 +1189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1215,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1249,7 +1241,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1301,7 +1293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1333,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1341,13 +1333,13 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1353,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1375,7 +1367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1389,7 +1381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1403,7 +1395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1417,7 +1409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1431,7 +1423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1445,7 +1437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1460,7 +1452,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}"/>
+  <autoFilter ref="A1:D3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D31DC4-A25E-4E8D-8EEA-415F275EF12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
   <si>
     <t>Item Number</t>
   </si>
@@ -249,12 +250,15 @@
   </si>
   <si>
     <t>Prannay is selected. His biodata and other credentials needed to be taken.</t>
+  </si>
+  <si>
+    <t>Photo shoot of Sathi and Victor is done. Sayan and Rahul still yet to give photo to Anirban</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -400,9 +404,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,7 +441,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +476,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,25 +649,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="81.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -683,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -697,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -711,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -728,7 +732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -742,7 +746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -759,7 +763,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -776,7 +780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -790,7 +794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -804,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -818,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -835,7 +839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -852,7 +856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -869,7 +873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -886,7 +890,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -900,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -914,7 +918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -928,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -942,7 +946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -956,7 +960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -973,7 +977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -986,8 +990,11 @@
       <c r="D21" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1004,7 +1011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1021,7 +1028,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1035,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1052,7 +1059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1069,7 +1076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1087,31 +1094,31 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27"/>
+  <autoFilter ref="A1:F27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1163,7 +1170,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1189,7 +1196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1215,7 +1222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1293,7 +1300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1325,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1333,13 +1340,13 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1360,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1367,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1381,7 +1388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1409,7 +1416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1437,7 +1444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1452,7 +1459,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:D3" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D31DC4-A25E-4E8D-8EEA-415F275EF12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C0254C-4474-4C14-A488-6D19B231566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="85">
   <si>
     <t>Item Number</t>
   </si>
@@ -253,6 +253,30 @@
   </si>
   <si>
     <t>Photo shoot of Sathi and Victor is done. Sayan and Rahul still yet to give photo to Anirban</t>
+  </si>
+  <si>
+    <t>Flow chart for Mock Test</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>by 22/11/2023</t>
+  </si>
+  <si>
+    <t>Debashish To Help in technology, Rahul to download &amp; curate soft copies of question bank</t>
+  </si>
+  <si>
+    <t>Scanned PDF for Mock test, Waqr to confirm</t>
+  </si>
+  <si>
+    <t>by 21/11/2023</t>
+  </si>
+  <si>
+    <t>Anirban to review</t>
+  </si>
+  <si>
+    <t>22/11/2023</t>
   </si>
 </sst>
 </file>
@@ -650,24 +674,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -687,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -701,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -715,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -732,7 +756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -745,8 +769,11 @@
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -763,7 +790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -780,21 +807,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -808,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -822,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -836,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -856,7 +886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -873,7 +903,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -890,7 +920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -904,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -918,7 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -932,7 +962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -946,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -960,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -977,7 +1007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -994,7 +1024,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1011,7 +1041,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1028,7 +1058,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1042,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1059,7 +1089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1076,7 +1106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1093,8 +1123,42 @@
         <v>75</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1107,18 +1171,18 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1144,7 +1208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1170,7 +1234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1196,7 +1260,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1222,7 +1286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1312,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -1274,7 +1338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1300,7 +1364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1340,13 +1404,13 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1424,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1374,7 +1438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1388,7 +1452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1402,7 +1466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1416,7 +1480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1430,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1444,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C0254C-4474-4C14-A488-6D19B231566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3870595-0B80-41B8-BE55-F37EE47C0A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="128">
   <si>
     <t>Item Number</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>Google anttech pay and deploy personel</t>
-  </si>
-  <si>
-    <t>Git access &amp; training to Rahul</t>
   </si>
   <si>
     <t>Monday EOD</t>
@@ -276,7 +273,139 @@
     <t>Anirban to review</t>
   </si>
   <si>
-    <t>22/11/2023</t>
+    <t>What will be the exact tests (class, board, subjects) for the incumbent / interested students?</t>
+  </si>
+  <si>
+    <t>Is schedule ready for all the prospective students according to their class / board / subjects?</t>
+  </si>
+  <si>
+    <t>Who will be the faculty for each test on each date and time? (Get consent from the faculty on availability)</t>
+  </si>
+  <si>
+    <t>Who will lead the team on each day and each test?</t>
+  </si>
+  <si>
+    <t>What team members will be supporting the tests for admin work? Who will do what?</t>
+  </si>
+  <si>
+    <t>What team members will be supporting the tests for Marketing work / presentation? Who will do what?</t>
+  </si>
+  <si>
+    <t>Is faculty ready with demo class? How will faculty raise interest of the students on the topic of her/his demo class. Will the question paper pattern be hard for these chapters?</t>
+  </si>
+  <si>
+    <t>Does faculty have soft copies of class notes / presentations / points to remember / sample questions etc. to be displayed in the demo class?</t>
+  </si>
+  <si>
+    <t>Can the faculty / team show the apps (class plus / college doors) as points of competencies during the presentation after mock test?</t>
+  </si>
+  <si>
+    <t>Is the demo class reharsed?</t>
+  </si>
+  <si>
+    <t>Is the marketing / counselling / presentation reharsed?</t>
+  </si>
+  <si>
+    <t>Is the question paper reviewed?</t>
+  </si>
+  <si>
+    <t>Do we have answering instructions / sample answers ready?</t>
+  </si>
+  <si>
+    <t>Wich chapters will students will find easy / scoring, which ones difficult? Are we designing demo class around the critical ones?</t>
+  </si>
+  <si>
+    <t>Is each team member aware of all the above points?</t>
+  </si>
+  <si>
+    <t>what will be the start time and end time of tests?</t>
+  </si>
+  <si>
+    <t>Which room will the students sit?</t>
+  </si>
+  <si>
+    <t>Which room will the parents sit?</t>
+  </si>
+  <si>
+    <t>Which toilet, water dispenser, facilities, parking, tea coffee etc…</t>
+  </si>
+  <si>
+    <t>Where will other BAU go during Mock tests?</t>
+  </si>
+  <si>
+    <t>How we manage invigilation?</t>
+  </si>
+  <si>
+    <t>How we manage parent's expectation?</t>
+  </si>
+  <si>
+    <t>Will the parents attend demo class?</t>
+  </si>
+  <si>
+    <t>Will counselling be in groups or individual?</t>
+  </si>
+  <si>
+    <t>Is counselling strategy defined?</t>
+  </si>
+  <si>
+    <t>What will be the course fees for each subject / board / test? Will we provide discounts? Is this as per profitability?</t>
+  </si>
+  <si>
+    <t>Which faculty will be appointed for each students upon enrollment? Is that faculty aware? Is she the same one conducting the test?</t>
+  </si>
+  <si>
+    <t>How do we manage expectations and volatile / unrully behavior of students and parents? Are team members aware of all these?</t>
+  </si>
+  <si>
+    <t>How do we invite students for the consecutive mock tests?</t>
+  </si>
+  <si>
+    <t>How do we show them a career path for individual students during counselling?</t>
+  </si>
+  <si>
+    <t>How do we ensure all students / parents / faculty and team members leave in a positive note?</t>
+  </si>
+  <si>
+    <t>Are we aware of App functionalityies for each test?</t>
+  </si>
+  <si>
+    <t>Will the students get question papers on laptops / mibile phones? Or papers? If online, did we ask them to bring laptops / mobiles? Will we give them wifi access?</t>
+  </si>
+  <si>
+    <t>If tests are online how do we manage disruptions due to FB and other websites on the same device?</t>
+  </si>
+  <si>
+    <t>How we collect phone numbers and contact info of parents / students?</t>
+  </si>
+  <si>
+    <t>How do we manage CRM with each one after mock tests?</t>
+  </si>
+  <si>
+    <t>What is the question paper pattern for the test as per board / class/ subject? (Time limit, number of questions , full marks, marks per question / sections, questions covering entire syllabus, question type (MCQ, objective, descriptive etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are we ready with a ppt about Anodiam and why they enroll with us? Who will deliver the presentation? When? Is it reharsed? </t>
+  </si>
+  <si>
+    <t>Do we ask clients to join a FB / WA group? Is that group a generic one or something specific for particular subject / board / class?</t>
+  </si>
+  <si>
+    <t>How do we cross sale other subjects to them? How do we ask them to refer other students? How do we ask them to do AI and Communication classes?</t>
+  </si>
+  <si>
+    <t>will we send street directions / locations to the parents? Will they assemble 15 mins early?</t>
+  </si>
+  <si>
+    <t>Will we put up internal branding during mock test (Standies / leaflets)?</t>
+  </si>
+  <si>
+    <t>Will ge need signages inside the building?</t>
+  </si>
+  <si>
+    <t>Seating arrangements?</t>
+  </si>
+  <si>
+    <t>Cleaning services and housekeeping?</t>
   </si>
 </sst>
 </file>
@@ -354,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -368,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,11 +806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -744,16 +876,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -761,16 +893,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -778,13 +910,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -795,16 +927,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -812,16 +941,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -829,10 +955,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -843,10 +969,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -857,16 +983,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -874,16 +997,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -891,33 +1011,33 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>68</v>
+      <c r="E14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -925,13 +1045,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -939,13 +1062,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -953,10 +1079,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -967,13 +1093,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -981,13 +1110,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -995,16 +1127,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -1012,16 +1144,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -1029,16 +1161,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -1046,16 +1178,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -1063,10 +1195,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1077,7 +1209,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1086,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -1094,7 +1226,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1103,7 +1235,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -1111,54 +1243,397 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="s">
-        <v>79</v>
+      <c r="E28" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
+      <c r="B29" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="6">
+        <v>69</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="6">
+        <v>70</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="6">
+        <v>71</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="6">
+        <v>72</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="6">
+        <v>73</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3870595-0B80-41B8-BE55-F37EE47C0A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5BDC44-835A-4411-99C7-388F35A13F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="130">
   <si>
     <t>Item Number</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>Cleaning services and housekeeping?</t>
+  </si>
+  <si>
+    <t>Define a sequence / timeline of key activities for mock test</t>
+  </si>
+  <si>
+    <t>Dry run a mock test end to end as per the above equence / timeline of key activities</t>
   </si>
 </sst>
 </file>
@@ -806,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1630,6 +1636,22 @@
       </c>
       <c r="B73" s="7" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="6">
+        <v>74</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="6">
+        <v>75</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5BDC44-835A-4411-99C7-388F35A13F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AC3646-43E1-449E-9D47-CFEA7038BEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$75</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -234,9 +234,6 @@
     <t>Conduct Internal Assessment Test Physics</t>
   </si>
   <si>
-    <t>Talk to Avishek Sir</t>
-  </si>
-  <si>
     <t>Conduct Internal Assessment Test Chem</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>Mock Test Presentation</t>
   </si>
   <si>
-    <t>Prannay is selected. His biodata and other credentials needed to be taken.</t>
-  </si>
-  <si>
     <t>Photo shoot of Sathi and Victor is done. Sayan and Rahul still yet to give photo to Anirban</t>
   </si>
   <si>
@@ -412,6 +406,12 @@
   </si>
   <si>
     <t>Dry run a mock test end to end as per the above equence / timeline of key activities</t>
+  </si>
+  <si>
+    <t>Talk to Avishek Sir.  Talked with Avishek Sir. He will take test on 25-11-2023.</t>
+  </si>
+  <si>
+    <t>Prannay is selected. His biodata has ben taken.AADHAR card needs to be taken.</t>
   </si>
 </sst>
 </file>
@@ -815,21 +815,21 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.1328125" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -849,7 +849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -891,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -911,7 +911,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -928,7 +928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -942,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -956,7 +956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -970,7 +970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1043,15 +1043,15 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -1063,7 +1063,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1077,10 +1077,10 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1142,32 +1142,32 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1176,10 +1176,10 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1210,12 +1210,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1224,15 +1224,15 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1278,384 +1278,384 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1668,18 +1668,18 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1901,13 +1901,13 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AC3646-43E1-449E-9D47-CFEA7038BEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2AD58-8A94-43CF-B7FF-7104ECEF1884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t>Item Number</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>Prannay is selected. His biodata has ben taken.AADHAR card needs to be taken.</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -812,11 +815,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,7 +853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -863,7 +867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -877,7 +881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -894,7 +898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -928,7 +932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -942,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -956,7 +960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -970,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -984,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1029,7 +1033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1139,13 +1143,13 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1210,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1326,7 +1330,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1350,7 +1354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1382,7 +1386,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -1406,7 +1410,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -1438,7 +1442,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -1454,7 +1458,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -1478,7 +1482,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -1486,7 +1490,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -1510,7 +1514,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -1574,7 +1578,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>69</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>70</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>71</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>72</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>73</v>
       </c>
@@ -1638,7 +1642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>74</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>75</v>
       </c>
@@ -1655,7 +1659,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F75" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Debashish"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2AD58-8A94-43CF-B7FF-7104ECEF1884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931340DC-01E6-4A9E-A3C6-B94EFA4B2FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$75</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -228,9 +239,6 @@
 Waqar reverted back and we will check on Monday (20th November 2023)</t>
   </si>
   <si>
-    <t>Subroto Sir will set Question paper by Thursday (23-11-2023)</t>
-  </si>
-  <si>
     <t>Conduct Internal Assessment Test Physics</t>
   </si>
   <si>
@@ -411,10 +419,13 @@
     <t>Talk to Avishek Sir.  Talked with Avishek Sir. He will take test on 25-11-2023.</t>
   </si>
   <si>
-    <t>Prannay is selected. His biodata has ben taken.AADHAR card needs to be taken.</t>
-  </si>
-  <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Prannay is selected. His biodata and AADHAR card has been collected.</t>
+  </si>
+  <si>
+    <t>Subroto Sir will set question paper.</t>
   </si>
 </sst>
 </file>
@@ -820,7 +831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -1047,7 +1058,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1055,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -1064,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1072,7 +1083,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -1081,7 +1092,7 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -1143,7 +1154,7 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
         <v>129</v>
@@ -1154,16 +1165,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -1171,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1180,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -1219,7 +1230,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1228,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -1236,7 +1247,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1287,7 +1298,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -1295,7 +1306,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -1303,7 +1314,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -1311,7 +1322,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1319,7 +1330,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1327,7 +1338,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1335,7 +1346,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1343,7 +1354,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1351,7 +1362,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1359,7 +1370,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1367,7 +1378,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -1375,7 +1386,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1383,7 +1394,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1391,7 +1402,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1399,7 +1410,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1407,7 +1418,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1415,7 +1426,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1423,7 +1434,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1431,7 +1442,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1439,7 +1450,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1447,7 +1458,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1455,7 +1466,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1463,7 +1474,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1471,7 +1482,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1479,7 +1490,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1487,7 +1498,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1495,7 +1506,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1503,7 +1514,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1511,7 +1522,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1519,7 +1530,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1527,7 +1538,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1535,7 +1546,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1543,7 +1554,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1551,7 +1562,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1559,7 +1570,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1567,7 +1578,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1575,7 +1586,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1583,7 +1594,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1591,7 +1602,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1599,7 +1610,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1607,7 +1618,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1615,7 +1626,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1623,7 +1634,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1631,7 +1642,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1639,7 +1650,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1647,7 +1658,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -1655,7 +1666,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931340DC-01E6-4A9E-A3C6-B94EFA4B2FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C6D7D5-16DF-409F-A1C3-4764C928BE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,12 +302,6 @@
     <t>Can the faculty / team show the apps (class plus / college doors) as points of competencies during the presentation after mock test?</t>
   </si>
   <si>
-    <t>Is the demo class reharsed?</t>
-  </si>
-  <si>
-    <t>Is the marketing / counselling / presentation reharsed?</t>
-  </si>
-  <si>
     <t>Is the question paper reviewed?</t>
   </si>
   <si>
@@ -426,6 +420,12 @@
   </si>
   <si>
     <t>Subroto Sir will set question paper.</t>
+  </si>
+  <si>
+    <t>Is the demo class rehearsed?</t>
+  </si>
+  <si>
+    <t>Is the marketing / counselling / presentation rehearsed?</t>
   </si>
 </sst>
 </file>
@@ -826,18 +826,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.6640625" customWidth="1"/>
@@ -864,7 +863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -878,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -892,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -909,7 +908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -943,7 +942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -957,7 +956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -971,7 +970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -985,7 +984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -999,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1092,10 +1091,10 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1154,13 +1153,13 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1333,7 +1332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1365,318 +1364,312 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F75" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Debashish"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C6D7D5-16DF-409F-A1C3-4764C928BE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376064D-69F2-49EB-A84F-2FD8F3D800FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$F$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$G$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="137">
   <si>
     <t>Item Number</t>
   </si>
@@ -260,18 +260,12 @@
     <t>Ananya</t>
   </si>
   <si>
-    <t>by 22/11/2023</t>
-  </si>
-  <si>
     <t>Debashish To Help in technology, Rahul to download &amp; curate soft copies of question bank</t>
   </si>
   <si>
     <t>Scanned PDF for Mock test, Waqr to confirm</t>
   </si>
   <si>
-    <t>by 21/11/2023</t>
-  </si>
-  <si>
     <t>Anirban to review</t>
   </si>
   <si>
@@ -426,6 +420,30 @@
   </si>
   <si>
     <t>Is the marketing / counselling / presentation rehearsed?</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Ops</t>
+  </si>
+  <si>
+    <t>Start in December</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>by 28/11/2023</t>
+  </si>
+  <si>
+    <t>Mock Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Dry Run by </t>
   </si>
 </sst>
 </file>
@@ -826,24 +844,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="145.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="58.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -851,19 +870,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -871,13 +893,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -885,13 +910,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -899,16 +927,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -916,16 +947,19 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -933,16 +967,19 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -950,13 +987,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -964,13 +1004,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -978,13 +1021,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -992,13 +1038,16 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1006,13 +1055,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1020,13 +1072,16 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1034,16 +1089,19 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1051,16 +1109,19 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1068,16 +1129,19 @@
         <v>69</v>
       </c>
       <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1085,16 +1149,19 @@
         <v>68</v>
       </c>
       <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1102,13 +1169,19 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1116,16 +1189,19 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1133,16 +1209,19 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1150,16 +1229,19 @@
         <v>49</v>
       </c>
       <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="D20" t="s">
-        <v>126</v>
-      </c>
       <c r="E20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1167,33 +1249,39 @@
         <v>73</v>
       </c>
       <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1201,16 +1289,19 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1218,13 +1309,19 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
         <v>65</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1232,16 +1329,19 @@
         <v>70</v>
       </c>
       <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>5</v>
       </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1249,16 +1349,19 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>5</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1266,16 +1369,19 @@
         <v>62</v>
       </c>
       <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1283,393 +1389,537 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="C69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="C73" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops/DailyStatusTracker.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376064D-69F2-49EB-A84F-2FD8F3D800FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">InternalAdmin!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OpsTracker!$A$1:$G$75</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="138">
   <si>
     <t>Item Number</t>
   </si>
@@ -444,12 +443,15 @@
   </si>
   <si>
     <t xml:space="preserve">Final Dry Run by </t>
+  </si>
+  <si>
+    <t>Start / config Selenium batch for Ashmita / Pranay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,9 +560,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -598,9 +600,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,7 +637,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,7 +672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -843,26 +845,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="81.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -885,7 +887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -902,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -919,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -939,7 +941,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -959,7 +961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -979,7 +981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -996,7 +998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1030,7 +1032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1081,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1412,7 +1414,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1434,7 +1436,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1445,7 +1447,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1456,7 +1458,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1467,7 +1469,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1478,7 +1480,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1511,7 +1513,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1522,7 +1524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1566,7 +1568,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1588,7 +1590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -1632,7 +1634,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -1654,7 +1656,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -1676,7 +1678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -1720,7 +1722,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -1753,7 +1755,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -1775,7 +1777,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -1786,7 +1788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -1808,7 +1810,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -1819,7 +1821,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -1830,7 +1832,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>69</v>
       </c>
@@ -1852,7 +1854,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>70</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>71</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>72</v>
       </c>
@@ -1885,7 +1887,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>73</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>74</v>
       </c>
@@ -1907,7 +1909,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>75</v>
       </c>
@@ -1918,32 +1920,53 @@
         <v>135</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>76</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G75"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1969,7 +1992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1995,7 +2018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2021,7 +2044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -2047,7 +2070,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
@@ -2073,7 +2096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -2099,7 +2122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2125,7 +2148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2157,7 +2180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2165,13 +2188,13 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2199,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2213,7 +2236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2227,7 +2250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2241,7 +2264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2255,7 +2278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2269,7 +2292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2284,7 +2307,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:D3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>